--- a/Testing/Reports/Car Booking TCs.xlsx
+++ b/Testing/Reports/Car Booking TCs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aml\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aml\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Add Car" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="202">
   <si>
     <t>ID</t>
   </si>
@@ -581,44 +581,6 @@
     <t>Car-TC-AdminHomePage-001</t>
   </si>
   <si>
-    <t>View admin home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that when logging in with admin valid credentials the system redirects admin to the admin home page that contains all available cars </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Login with admin valid username and password that exists in database
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1- URL: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">http://localhost:8080/New%20folder/Login.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2-Username: eslamAdmin
-3-Password: eslam</t>
-    </r>
-  </si>
-  <si>
-    <t>A list of all cars that exists in the system appears and under each car there is a delete button and there are two button for update and add car in the top right of page</t>
-  </si>
-  <si>
     <t>Car-TC-AdminHomePage-002</t>
   </si>
   <si>
@@ -702,9 +664,6 @@
     <t>The system redirects admin to update car page.</t>
   </si>
   <si>
-    <t>Car-TC-AdminHomePage-005</t>
-  </si>
-  <si>
     <t>Press add car button</t>
   </si>
   <si>
@@ -918,10 +877,6 @@
   </si>
   <si>
     <t>1- No update happens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Browser is opened
-2- The website login page is accessed successfully </t>
   </si>
   <si>
     <t>Car-TC--Regs-001</t>
@@ -1450,7 +1405,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1552,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1623,7 +1578,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1649,7 +1604,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="132" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1675,7 +1630,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="132" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1753,7 +1708,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
@@ -1779,7 +1734,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>56</v>
       </c>
@@ -4990,7 +4945,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5075,7 +5030,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -5143,7 +5098,7 @@
         <v>72</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5299,7 +5254,7 @@
         <v>59</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -5318,7 +5273,7 @@
   <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5459,7 +5414,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -5471,7 +5426,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -5483,7 +5438,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -5495,7 +5450,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -5507,7 +5462,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -5519,7 +5474,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -5531,7 +5486,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -5543,7 +5498,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -5555,7 +5510,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -5567,7 +5522,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -5579,7 +5534,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -5591,7 +5546,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -5603,7 +5558,7 @@
       <c r="I16" s="18"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -5615,7 +5570,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -5627,7 +5582,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -5639,7 +5594,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -5651,7 +5606,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -5663,7 +5618,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -5675,7 +5630,7 @@
       <c r="I22" s="18"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -5687,7 +5642,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -5699,7 +5654,7 @@
       <c r="I24" s="18"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -5711,7 +5666,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -5723,7 +5678,7 @@
       <c r="I26" s="18"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -5735,7 +5690,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -5747,7 +5702,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -5759,7 +5714,7 @@
       <c r="I29" s="18"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -5771,7 +5726,7 @@
       <c r="I30" s="18"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -5783,7 +5738,7 @@
       <c r="I31" s="18"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -5795,7 +5750,7 @@
       <c r="I32" s="18"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -5807,7 +5762,7 @@
       <c r="I33" s="18"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -5818,7 +5773,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -5829,7 +5784,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -5840,7 +5795,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -6558,10 +6513,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6631,46 +6586,44 @@
         <v>111</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="5"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F3" s="16"/>
       <c r="G3" s="12" t="s">
         <v>123</v>
       </c>
@@ -6678,9 +6631,9 @@
       <c r="I3" s="5"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:26" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>125</v>
@@ -6689,14 +6642,16 @@
         <v>126</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="G4" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="5"/>
@@ -6704,7 +6659,7 @@
     </row>
     <row r="5" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>130</v>
@@ -6713,7 +6668,7 @@
         <v>131</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>132</v>
@@ -6728,38 +6683,11 @@
       <c r="I5" s="5"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="66" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="15"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId2"/>
     <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="F6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6841,186 +6769,186 @@
     </row>
     <row r="2" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E3" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>144</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>150</v>
       </c>
       <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E4" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>150</v>
       </c>
       <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E5" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>144</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>150</v>
       </c>
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E6" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>150</v>
       </c>
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7179,8 +7107,8 @@
   </sheetPr>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7246,279 +7174,279 @@
     </row>
     <row r="2" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>167</v>
-      </c>
       <c r="H3" s="36" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
     </row>
-    <row r="8" spans="1:26" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
     </row>
-    <row r="9" spans="1:26" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
     </row>
-    <row r="10" spans="1:26" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
     </row>
-    <row r="11" spans="1:26" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="34"/>

--- a/Testing/Reports/Car Booking TCs.xlsx
+++ b/Testing/Reports/Car Booking TCs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Car-Bookings\Testing\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\QA-Project\Car-Bookings\Testing\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Add Car" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,15 @@
     <sheet name="Registration Page" sheetId="5" r:id="rId5"/>
     <sheet name="Login Page" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Update Car'!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="291">
   <si>
     <t>ID</t>
   </si>
@@ -167,12 +170,6 @@
 7- Click on Add button</t>
   </si>
   <si>
-    <t>Image Extension:JPG
-Car brand: Audi
-Car color: Black
-Car price:50000 LE</t>
-  </si>
-  <si>
     <t>1-car not added till correct the entered data is applied</t>
   </si>
   <si>
@@ -307,12 +304,6 @@
     <t>Car-TC-UpdateCar-001</t>
   </si>
   <si>
-    <t>UpdateCar</t>
-  </si>
-  <si>
-    <t>Check UpdateCar with empty fields</t>
-  </si>
-  <si>
     <t xml:space="preserve">1- Click add Update button
 </t>
   </si>
@@ -320,56 +311,7 @@
     <t>Car-TC-UpdateCar-002</t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-Update Exisiting car </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that Admin can update
-an exisiting car in the
- system 
- </t>
-  </si>
-  <si>
-    <t>1- Click update car button
-2- Click Upload Image button
-3- Choose image from your computer 
-local storage with png extension
-4- Enter car id in ID input field
-5- Click on Brand drop down list and
- choose car brand
-6- Click on Color drop down list and
- choose car color
-7- Enter car price in price input field
-8- Click on Update button</t>
-  </si>
-  <si>
-    <t>1- Pop up message appears saying 
-"Car updated successfully"
-2- Car updated with the new details 
-that the users had entered in the 
-same row in table "car" in the
- database
-3- Car appears in Admin Home Page 
-with the new updates</t>
-  </si>
-  <si>
     <t>Car-TC-UpdateCar-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Update NonExisiting car </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that Admin can not update
-non exisiting car in the
- system 
- </t>
-  </si>
-  <si>
-    <t>"Image Extension:JPG
-Car brand: Volvo
-Car color: Gray
-Car price:50000"</t>
   </si>
   <si>
     <t>Car-TC-UpdateCar-004</t>
@@ -379,11 +321,6 @@
 specific currency</t>
   </si>
   <si>
-    <t xml:space="preserve">1-In the price input field only 50000 
-only entered in this field
-</t>
-  </si>
-  <si>
     <t>Car-TC-UpdateCar-005</t>
   </si>
   <si>
@@ -398,21 +335,7 @@
 no price</t>
   </si>
   <si>
-    <t>1- Car not updated 
-2-cursor move to Price field to add the price</t>
-  </si>
-  <si>
     <t>Car-TC-UpdateCar-007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Car price with 
-default car brand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that Admin can update car 
-without choosing car brand
-from the drop down list
- </t>
   </si>
   <si>
     <t>1- Pop up message appears saying 
@@ -428,31 +351,7 @@
     <t>Car-TC-UpdateCar-008</t>
   </si>
   <si>
-    <t xml:space="preserve">Update Car price with 
-default car color </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that Admin can update car 
-without choosing car color
-from the drop down list
- </t>
-  </si>
-  <si>
-    <t>1- Pop up message appears saying 
-"Car updated successfully"
-2- Car updated in the same row in 
-table "car" in the database with the 
-correct input data found in Test data
-and with Balck color in "color" column
-3- Car appears in Admin Home 
-Page with Black color</t>
-  </si>
-  <si>
     <t>Car-TC-UpdateCar-009</t>
-  </si>
-  <si>
-    <t>Update Car price with 
-negative value</t>
   </si>
   <si>
     <t>Car-TC-UserHomePage-001</t>
@@ -1007,12 +906,471 @@
   <si>
     <t>Home button is missing</t>
   </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>Update Button</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Check Update button from Update Car page with empty fields</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Admin navigates to the website login page and logged into the system</t>
+    </r>
+  </si>
+  <si>
+    <t>No update happens</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1-Checked in the database 
+2- there is No message "Car updated Successfully" appears</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Update Existing car </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that Admin can update
+an existing car in the
+ system 
+ </t>
+  </si>
+  <si>
+    <t>1- Click update car button
+2- Click Upload Image button
+3- Browse Choose image from
+local storage
+4- Enter car id in ID input field
+5- Click on Brand drop down list and
+ choose car brand
+6- Click on Color drop down list and
+ choose car color
+7- Enter car price in price input field
+8- Click on Update button</t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car brand: Audi
+Car color: Black
+Car price:50000</t>
+  </si>
+  <si>
+    <t>1- Pop up message appears saying 
+"car updated successfully"
+2- Car updated with the new details 
+that the users had entered in the 
+same row in table "car" in the
+ database
+3- Car appears in Admin Home Page 
+with the new updates</t>
+  </si>
+  <si>
+    <t>1- Pop up message appears saying 
+"car updated successfully"
+2- Car updated with the new details 
+that the Admin entered in the 
+same row in table "car" in the database
+3- Car appears in Admin Home Page 
+with the new updates</t>
+  </si>
+  <si>
+    <t>1-Checked in the database 
+2- there is a message "Car updated Successfully" appears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Update Non Existing car </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that Admin can not update non existing car in the
+ system (choose non existing ID) 
+ </t>
+  </si>
+  <si>
+    <t>"Image:img
+ID: any No from DB
+Car brand: Volvo
+Car color: Gray
+Car price:50000"</t>
+  </si>
+  <si>
+    <t>1- No update happens
+2- Pop up message appears saying 
+"car updated successfully"</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>It's not really added in database or in the admin home page</t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car brand: Audi
+Car color: Black
+Car price:50000 LE</t>
+  </si>
+  <si>
+    <t>Update Car price with 
+letters</t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car brand: Audi
+Car color: Black
+Car price:aml</t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car brand: Audi
+Car color: Black
+Car price:50,000</t>
+  </si>
+  <si>
+    <t>1- Click update car button
+2- Click Upload Image button
+3- Browse Choose image from
+local storage
+4- Enter car id in ID input field
+5- Click on Brand drop down list and
+ choose car brand
+6- Click on Color drop down list and
+ choose car color
+7- Click on Add button</t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car brand: Audi
+Car color: Black
+Car price:</t>
+  </si>
+  <si>
+    <t>Update Car price with 
+number spaces in-between</t>
+  </si>
+  <si>
+    <t>1- Click update car button
+2- Click Upload Image button
+3- Browse Choose image from
+local storage
+4- Enter car id in ID input field
+5- Click on Brand drop down list and
+ choose car brand
+6- Click on Color drop down list and
+ choose car color
+7- Enter car price in price input field
+8- Click on Add button</t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car brand: Audi
+Car color: Black
+Car price:2  100</t>
+  </si>
+  <si>
+    <t>Update Car price with 
+-ve  price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that Admin can not
+ Enter -ve value in the price input field
+ </t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car brand: Audi
+Car color: Black
+Car price:-20000</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Car with 
+default car color </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that Admin can update car without choosing car color
+from the drop down list
+ </t>
+  </si>
+  <si>
+    <t>1- Click add car button
+2- Click Upload Image button
+3- Browse Choose image from
+local storage
+4- Enter car id in ID input field
+5- Click on Brand drop down list and
+ choose car brand
+6- Enter car price in price input field
+7- Click on Add button</t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car brand: Audi
+Car price:50000</t>
+  </si>
+  <si>
+    <t>1- Pop up message appears saying 
+"Car updated successfully"
+2- Car updated in the same row in 
+table "car" in the database with the 
+correct input data found in Test data
+and with Black color in "color" column
+3- Car appears in Admin Home 
+Page with Black color</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Car with 
+color of Dropdown menu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that Admin can Update Car with one of the color of Dropdown menu 
+ </t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car brand: Audi
+Car color: Gray
+Car price:20000</t>
+  </si>
+  <si>
+    <t>1- Pop up message appears saying 
+"Car updated successfully"
+2- Car updated in the same row in 
+table "car" in the database with the 
+correct input data found in Test data
+3- Car appears in Admin Home 
+Page with updated data</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that Admin can Update Car with one of the color from the Dropdown menu </t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car brand: Audi
+Car color: Red
+Car price:20000</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Car with 
+default car brand </t>
+  </si>
+  <si>
+    <t>Check that Admin can update car without choosing car brand from the drop down list</t>
+  </si>
+  <si>
+    <t>1- Click update car button
+2- Click Upload Image button
+3- Browse Choose image from
+local storage
+4- Enter car id in ID input field
+5- Click on Color drop down list and
+ choose car color
+6- Enter car price in price input field
+7- Click on Add button</t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car color: Black
+Car price:50000</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Car with 
+brand of Dropdown menu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that Admin can Update Car with one of the from the Dropdown menu </t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car brand: Saab
+Car color: Black
+Car price:50000</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-015</t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car brand: Volvo
+Car color: Black
+Car price:50000</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-016</t>
+  </si>
+  <si>
+    <t>Image:img
+ID: any No from DB
+Car brand: Opel
+Car color: Black
+Car price:50000</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Car with 
+-ve value in ID </t>
+  </si>
+  <si>
+    <t>Check that Admin can not Update Car with -ve ID</t>
+  </si>
+  <si>
+    <t>Image:img
+ID: -2
+Car brand: Opel
+Car color: Black
+Car price:50000</t>
+  </si>
+  <si>
+    <t>1- Pop up message appears saying 
+"Car updated successfully"</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-018</t>
+  </si>
+  <si>
+    <t>Update Car with different image extensions</t>
+  </si>
+  <si>
+    <t>Check that Admin can Update car image with extension (.TIFF)</t>
+  </si>
+  <si>
+    <t>Image Extension:.TIFF
+ID: any No from DB
+Car brand: Volvo
+Car color: Black
+Car price:50000</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-019</t>
+  </si>
+  <si>
+    <t>Check that Admin can Update car image with extension (.JPEG)</t>
+  </si>
+  <si>
+    <t>Image Extension:.JPEG
+ID: any No from DB
+Car brand: Volvo
+Car color: Black
+Car price:50000</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-020</t>
+  </si>
+  <si>
+    <t>Check that Admin can Update car image with extension (.jpg)</t>
+  </si>
+  <si>
+    <t>Image Extension:..jpg
+ID: any No from DB
+Car brand: Volvo
+Car color: Black
+Car price:50000</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-021</t>
+  </si>
+  <si>
+    <t>Check that Admin can Update car image with extension (.GIF)</t>
+  </si>
+  <si>
+    <t>Image Extension:.GIF
+ID: any No from DB
+Car brand: Volvo
+Car color: Black
+Car price:50000</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-022</t>
+  </si>
+  <si>
+    <t>Check that Admin can Update car image with extension (.png)</t>
+  </si>
+  <si>
+    <t>Image Extension:.png
+ID: any No from DB
+Car brand: Volvo
+Car color: Black
+Car price:50000</t>
+  </si>
+  <si>
+    <t>Car-TC-UpdateCar-023</t>
+  </si>
+  <si>
+    <t>Home Button</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Check that Home button is exist in the update car page</t>
+  </si>
+  <si>
+    <t>1- Click update car button</t>
+  </si>
+  <si>
+    <t>1- The Home button is exist</t>
+  </si>
+  <si>
+    <t>1- there is no Home button in the page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1071,8 +1429,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,6 +1470,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1295,6 +1665,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1517,27 +1899,27 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="38"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1967,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1606,10 +1988,10 @@
         <v>16</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
@@ -1629,7 +2011,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1652,10 +2034,10 @@
         <v>21</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
@@ -1675,7 +2057,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1701,11 +2083,11 @@
         <v>21</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1731,11 +2113,11 @@
         <v>21</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="132" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1752,28 +2134,28 @@
         <v>31</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="132" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
@@ -1782,198 +2164,198 @@
         <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="102" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>219</v>
-      </c>
       <c r="D13" s="40" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="43" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1981,7 +2363,7 @@
       <c r="E14" s="9"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1989,7 +2371,7 @@
       <c r="E15" s="9"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1997,7 +2379,7 @@
       <c r="E16" s="9"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2005,7 +2387,7 @@
       <c r="E17" s="9"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2013,7 +2395,7 @@
       <c r="E18" s="9"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2021,7 +2403,7 @@
       <c r="E19" s="9"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2029,7 +2411,7 @@
       <c r="E20" s="9"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2037,7 +2419,7 @@
       <c r="E21" s="9"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2045,7 +2427,7 @@
       <c r="E22" s="9"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2053,7 +2435,7 @@
       <c r="E23" s="9"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2061,7 +2443,7 @@
       <c r="E24" s="9"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2069,7 +2451,7 @@
       <c r="E25" s="9"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2077,7 +2459,7 @@
       <c r="E26" s="9"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2085,7 +2467,7 @@
       <c r="E27" s="9"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2093,7 +2475,7 @@
       <c r="E28" s="9"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2101,7 +2483,7 @@
       <c r="E29" s="9"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2109,7 +2491,7 @@
       <c r="E30" s="9"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2117,7 +2499,7 @@
       <c r="E31" s="9"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2125,7 +2507,7 @@
       <c r="E32" s="9"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2133,7 +2515,7 @@
       <c r="E33" s="9"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2141,7 +2523,7 @@
       <c r="E34" s="9"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2149,7 +2531,7 @@
       <c r="E35" s="9"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2157,7 +2539,7 @@
       <c r="E36" s="9"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2165,7 +2547,7 @@
       <c r="E37" s="9"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2173,7 +2555,7 @@
       <c r="E38" s="9"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2181,7 +2563,7 @@
       <c r="E39" s="9"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2189,7 +2571,7 @@
       <c r="E40" s="9"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2197,7 +2579,7 @@
       <c r="E41" s="8"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2205,7 +2587,7 @@
       <c r="E42" s="9"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2213,7 +2595,7 @@
       <c r="E43" s="9"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2221,7 +2603,7 @@
       <c r="E44" s="9"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2229,7 +2611,7 @@
       <c r="E45" s="9"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2237,7 +2619,7 @@
       <c r="E46" s="9"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2245,7 +2627,7 @@
       <c r="E47" s="9"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2253,7 +2635,7 @@
       <c r="E48" s="9"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="11"/>
@@ -2261,2869 +2643,2869 @@
       <c r="E49" s="9"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G69" s="10"/>
     </row>
-    <row r="70" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G71" s="10"/>
     </row>
-    <row r="72" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G73" s="10"/>
     </row>
-    <row r="74" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G74" s="10"/>
     </row>
-    <row r="75" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G77" s="10"/>
     </row>
-    <row r="78" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G78" s="10"/>
     </row>
-    <row r="79" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G79" s="10"/>
     </row>
-    <row r="80" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G80" s="10"/>
     </row>
-    <row r="81" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G81" s="10"/>
     </row>
-    <row r="82" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G82" s="10"/>
     </row>
-    <row r="83" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G83" s="10"/>
     </row>
-    <row r="84" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G84" s="10"/>
     </row>
-    <row r="85" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G85" s="10"/>
     </row>
-    <row r="86" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G87" s="10"/>
     </row>
-    <row r="88" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G88" s="10"/>
     </row>
-    <row r="89" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G91" s="10"/>
     </row>
-    <row r="92" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G92" s="10"/>
     </row>
-    <row r="93" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G93" s="10"/>
     </row>
-    <row r="94" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G95" s="10"/>
     </row>
-    <row r="96" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G96" s="10"/>
     </row>
-    <row r="97" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G97" s="10"/>
     </row>
-    <row r="98" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G98" s="10"/>
     </row>
-    <row r="99" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G99" s="10"/>
     </row>
-    <row r="100" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G100" s="10"/>
     </row>
-    <row r="101" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G101" s="10"/>
     </row>
-    <row r="102" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G102" s="10"/>
     </row>
-    <row r="103" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G103" s="10"/>
     </row>
-    <row r="104" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G104" s="10"/>
     </row>
-    <row r="105" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G105" s="10"/>
     </row>
-    <row r="106" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G106" s="10"/>
     </row>
-    <row r="107" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G107" s="10"/>
     </row>
-    <row r="108" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G108" s="10"/>
     </row>
-    <row r="109" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G109" s="10"/>
     </row>
-    <row r="110" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G110" s="10"/>
     </row>
-    <row r="111" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G111" s="10"/>
     </row>
-    <row r="112" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G112" s="10"/>
     </row>
-    <row r="113" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G113" s="10"/>
     </row>
-    <row r="114" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G114" s="10"/>
     </row>
-    <row r="115" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G115" s="10"/>
     </row>
-    <row r="116" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G116" s="10"/>
     </row>
-    <row r="117" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G117" s="10"/>
     </row>
-    <row r="118" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G118" s="10"/>
     </row>
-    <row r="119" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G119" s="10"/>
     </row>
-    <row r="120" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G120" s="10"/>
     </row>
-    <row r="121" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G121" s="10"/>
     </row>
-    <row r="122" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G125" s="10"/>
     </row>
-    <row r="126" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G126" s="10"/>
     </row>
-    <row r="127" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G128" s="10"/>
     </row>
-    <row r="129" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G129" s="10"/>
     </row>
-    <row r="130" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G130" s="10"/>
     </row>
-    <row r="131" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G131" s="10"/>
     </row>
-    <row r="132" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G133" s="10"/>
     </row>
-    <row r="134" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G134" s="10"/>
     </row>
-    <row r="135" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G135" s="10"/>
     </row>
-    <row r="136" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G136" s="10"/>
     </row>
-    <row r="137" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G137" s="10"/>
     </row>
-    <row r="138" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G138" s="10"/>
     </row>
-    <row r="139" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G139" s="10"/>
     </row>
-    <row r="140" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G140" s="10"/>
     </row>
-    <row r="141" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G141" s="10"/>
     </row>
-    <row r="142" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G142" s="10"/>
     </row>
-    <row r="143" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G143" s="10"/>
     </row>
-    <row r="144" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G144" s="10"/>
     </row>
-    <row r="145" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G145" s="10"/>
     </row>
-    <row r="146" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G146" s="10"/>
     </row>
-    <row r="147" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G147" s="10"/>
     </row>
-    <row r="148" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G148" s="10"/>
     </row>
-    <row r="149" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G149" s="10"/>
     </row>
-    <row r="150" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G150" s="10"/>
     </row>
-    <row r="151" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G151" s="10"/>
     </row>
-    <row r="152" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G152" s="10"/>
     </row>
-    <row r="153" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G153" s="10"/>
     </row>
-    <row r="154" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G154" s="10"/>
     </row>
-    <row r="155" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G155" s="10"/>
     </row>
-    <row r="156" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G156" s="10"/>
     </row>
-    <row r="157" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G157" s="10"/>
     </row>
-    <row r="158" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G158" s="10"/>
     </row>
-    <row r="159" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G159" s="10"/>
     </row>
-    <row r="160" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G160" s="10"/>
     </row>
-    <row r="161" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G161" s="10"/>
     </row>
-    <row r="162" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G162" s="10"/>
     </row>
-    <row r="163" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G163" s="10"/>
     </row>
-    <row r="164" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G164" s="10"/>
     </row>
-    <row r="165" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G165" s="10"/>
     </row>
-    <row r="166" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G166" s="10"/>
     </row>
-    <row r="167" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G167" s="10"/>
     </row>
-    <row r="168" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G168" s="10"/>
     </row>
-    <row r="169" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G169" s="10"/>
     </row>
-    <row r="170" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G170" s="10"/>
     </row>
-    <row r="171" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G171" s="10"/>
     </row>
-    <row r="172" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G172" s="10"/>
     </row>
-    <row r="173" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G173" s="10"/>
     </row>
-    <row r="174" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G174" s="10"/>
     </row>
-    <row r="175" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G175" s="10"/>
     </row>
-    <row r="176" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G176" s="10"/>
     </row>
-    <row r="177" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G177" s="10"/>
     </row>
-    <row r="178" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G178" s="10"/>
     </row>
-    <row r="179" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G179" s="10"/>
     </row>
-    <row r="180" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G180" s="10"/>
     </row>
-    <row r="181" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G181" s="10"/>
     </row>
-    <row r="182" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G182" s="10"/>
     </row>
-    <row r="183" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G183" s="10"/>
     </row>
-    <row r="184" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G184" s="10"/>
     </row>
-    <row r="185" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G185" s="10"/>
     </row>
-    <row r="186" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G186" s="10"/>
     </row>
-    <row r="187" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G187" s="10"/>
     </row>
-    <row r="188" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G188" s="10"/>
     </row>
-    <row r="189" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G189" s="10"/>
     </row>
-    <row r="190" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G190" s="10"/>
     </row>
-    <row r="191" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G191" s="10"/>
     </row>
-    <row r="192" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G192" s="10"/>
     </row>
-    <row r="193" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G193" s="10"/>
     </row>
-    <row r="194" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G194" s="10"/>
     </row>
-    <row r="195" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G195" s="10"/>
     </row>
-    <row r="196" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G196" s="10"/>
     </row>
-    <row r="197" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G197" s="10"/>
     </row>
-    <row r="198" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G198" s="10"/>
     </row>
-    <row r="199" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G199" s="10"/>
     </row>
-    <row r="200" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G200" s="10"/>
     </row>
-    <row r="201" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G201" s="10"/>
     </row>
-    <row r="202" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G202" s="10"/>
     </row>
-    <row r="203" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G203" s="10"/>
     </row>
-    <row r="204" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G204" s="10"/>
     </row>
-    <row r="205" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G205" s="10"/>
     </row>
-    <row r="206" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G206" s="10"/>
     </row>
-    <row r="207" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G207" s="10"/>
     </row>
-    <row r="208" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G208" s="10"/>
     </row>
-    <row r="209" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G209" s="10"/>
     </row>
-    <row r="210" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G210" s="10"/>
     </row>
-    <row r="211" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G211" s="10"/>
     </row>
-    <row r="212" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G212" s="10"/>
     </row>
-    <row r="213" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G213" s="10"/>
     </row>
-    <row r="214" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G214" s="10"/>
     </row>
-    <row r="215" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G215" s="10"/>
     </row>
-    <row r="216" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G216" s="10"/>
     </row>
-    <row r="217" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G217" s="10"/>
     </row>
-    <row r="218" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G218" s="10"/>
     </row>
-    <row r="219" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G219" s="10"/>
     </row>
-    <row r="220" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G220" s="10"/>
     </row>
-    <row r="221" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G221" s="10"/>
     </row>
-    <row r="222" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G222" s="10"/>
     </row>
-    <row r="223" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G223" s="10"/>
     </row>
-    <row r="224" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G224" s="10"/>
     </row>
-    <row r="225" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G225" s="10"/>
     </row>
-    <row r="226" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G226" s="10"/>
     </row>
-    <row r="227" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G227" s="10"/>
     </row>
-    <row r="228" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G228" s="10"/>
     </row>
-    <row r="229" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G229" s="10"/>
     </row>
-    <row r="230" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G230" s="10"/>
     </row>
-    <row r="231" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G231" s="10"/>
     </row>
-    <row r="232" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G232" s="10"/>
     </row>
-    <row r="233" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G233" s="10"/>
     </row>
-    <row r="234" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G234" s="10"/>
     </row>
-    <row r="235" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G235" s="10"/>
     </row>
-    <row r="236" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G236" s="10"/>
     </row>
-    <row r="237" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G237" s="10"/>
     </row>
-    <row r="238" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G238" s="10"/>
     </row>
-    <row r="239" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G239" s="10"/>
     </row>
-    <row r="240" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G240" s="10"/>
     </row>
-    <row r="241" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G241" s="10"/>
     </row>
-    <row r="242" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G242" s="10"/>
     </row>
-    <row r="243" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G243" s="10"/>
     </row>
-    <row r="244" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G244" s="10"/>
     </row>
-    <row r="245" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G245" s="10"/>
     </row>
-    <row r="246" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G246" s="10"/>
     </row>
-    <row r="247" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G247" s="10"/>
     </row>
-    <row r="248" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G248" s="10"/>
     </row>
-    <row r="249" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G249" s="10"/>
     </row>
-    <row r="250" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G250" s="10"/>
     </row>
-    <row r="251" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G251" s="10"/>
     </row>
-    <row r="252" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G252" s="10"/>
     </row>
-    <row r="253" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G253" s="10"/>
     </row>
-    <row r="254" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G254" s="10"/>
     </row>
-    <row r="255" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G255" s="10"/>
     </row>
-    <row r="256" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G256" s="10"/>
     </row>
-    <row r="257" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G257" s="10"/>
     </row>
-    <row r="258" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G258" s="10"/>
     </row>
-    <row r="259" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G259" s="10"/>
     </row>
-    <row r="260" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G260" s="10"/>
     </row>
-    <row r="261" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G261" s="10"/>
     </row>
-    <row r="262" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G262" s="10"/>
     </row>
-    <row r="263" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G263" s="10"/>
     </row>
-    <row r="264" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G264" s="10"/>
     </row>
-    <row r="265" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G265" s="10"/>
     </row>
-    <row r="266" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G266" s="10"/>
     </row>
-    <row r="267" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G267" s="10"/>
     </row>
-    <row r="268" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G268" s="10"/>
     </row>
-    <row r="269" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G269" s="10"/>
     </row>
-    <row r="270" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G270" s="10"/>
     </row>
-    <row r="271" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G271" s="10"/>
     </row>
-    <row r="272" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G272" s="10"/>
     </row>
-    <row r="273" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G273" s="10"/>
     </row>
-    <row r="274" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G274" s="10"/>
     </row>
-    <row r="275" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G275" s="10"/>
     </row>
-    <row r="276" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G276" s="10"/>
     </row>
-    <row r="277" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G277" s="10"/>
     </row>
-    <row r="278" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G278" s="10"/>
     </row>
-    <row r="279" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G279" s="10"/>
     </row>
-    <row r="280" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G280" s="10"/>
     </row>
-    <row r="281" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G281" s="10"/>
     </row>
-    <row r="282" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G282" s="10"/>
     </row>
-    <row r="283" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G283" s="10"/>
     </row>
-    <row r="284" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G284" s="10"/>
     </row>
-    <row r="285" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G285" s="10"/>
     </row>
-    <row r="286" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G286" s="10"/>
     </row>
-    <row r="287" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G287" s="10"/>
     </row>
-    <row r="288" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G288" s="10"/>
     </row>
-    <row r="289" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G289" s="10"/>
     </row>
-    <row r="290" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G290" s="10"/>
     </row>
-    <row r="291" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G291" s="10"/>
     </row>
-    <row r="292" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G292" s="10"/>
     </row>
-    <row r="293" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G293" s="10"/>
     </row>
-    <row r="294" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G294" s="10"/>
     </row>
-    <row r="295" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G295" s="10"/>
     </row>
-    <row r="296" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G296" s="10"/>
     </row>
-    <row r="297" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G297" s="10"/>
     </row>
-    <row r="298" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G298" s="10"/>
     </row>
-    <row r="299" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G299" s="10"/>
     </row>
-    <row r="300" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G300" s="10"/>
     </row>
-    <row r="301" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G301" s="10"/>
     </row>
-    <row r="302" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G302" s="10"/>
     </row>
-    <row r="303" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G303" s="10"/>
     </row>
-    <row r="304" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G304" s="10"/>
     </row>
-    <row r="305" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G305" s="10"/>
     </row>
-    <row r="306" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G306" s="10"/>
     </row>
-    <row r="307" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G307" s="10"/>
     </row>
-    <row r="308" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G308" s="10"/>
     </row>
-    <row r="309" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G309" s="10"/>
     </row>
-    <row r="310" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G310" s="10"/>
     </row>
-    <row r="311" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G311" s="10"/>
     </row>
-    <row r="312" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G312" s="10"/>
     </row>
-    <row r="313" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G313" s="10"/>
     </row>
-    <row r="314" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G314" s="10"/>
     </row>
-    <row r="315" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G315" s="10"/>
     </row>
-    <row r="316" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G316" s="10"/>
     </row>
-    <row r="317" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G317" s="10"/>
     </row>
-    <row r="318" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G318" s="10"/>
     </row>
-    <row r="319" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G319" s="10"/>
     </row>
-    <row r="320" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G320" s="10"/>
     </row>
-    <row r="321" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G321" s="10"/>
     </row>
-    <row r="322" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G322" s="10"/>
     </row>
-    <row r="323" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G323" s="10"/>
     </row>
-    <row r="324" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G324" s="10"/>
     </row>
-    <row r="325" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G325" s="10"/>
     </row>
-    <row r="326" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G326" s="10"/>
     </row>
-    <row r="327" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G327" s="10"/>
     </row>
-    <row r="328" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G328" s="10"/>
     </row>
-    <row r="329" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G329" s="10"/>
     </row>
-    <row r="330" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G330" s="10"/>
     </row>
-    <row r="331" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G331" s="10"/>
     </row>
-    <row r="332" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G332" s="10"/>
     </row>
-    <row r="333" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G333" s="10"/>
     </row>
-    <row r="334" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G334" s="10"/>
     </row>
-    <row r="335" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G335" s="10"/>
     </row>
-    <row r="336" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G336" s="10"/>
     </row>
-    <row r="337" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G337" s="10"/>
     </row>
-    <row r="338" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G338" s="10"/>
     </row>
-    <row r="339" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G339" s="10"/>
     </row>
-    <row r="340" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G340" s="10"/>
     </row>
-    <row r="341" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G341" s="10"/>
     </row>
-    <row r="342" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G342" s="10"/>
     </row>
-    <row r="343" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G343" s="10"/>
     </row>
-    <row r="344" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G344" s="10"/>
     </row>
-    <row r="345" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G345" s="10"/>
     </row>
-    <row r="346" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G346" s="10"/>
     </row>
-    <row r="347" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G347" s="10"/>
     </row>
-    <row r="348" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G348" s="10"/>
     </row>
-    <row r="349" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G349" s="10"/>
     </row>
-    <row r="350" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G350" s="10"/>
     </row>
-    <row r="351" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G351" s="10"/>
     </row>
-    <row r="352" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G352" s="10"/>
     </row>
-    <row r="353" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G353" s="10"/>
     </row>
-    <row r="354" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G354" s="10"/>
     </row>
-    <row r="355" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G355" s="10"/>
     </row>
-    <row r="356" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G356" s="10"/>
     </row>
-    <row r="357" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G357" s="10"/>
     </row>
-    <row r="358" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G358" s="10"/>
     </row>
-    <row r="359" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G359" s="10"/>
     </row>
-    <row r="360" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G360" s="10"/>
     </row>
-    <row r="361" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G361" s="10"/>
     </row>
-    <row r="362" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G362" s="10"/>
     </row>
-    <row r="363" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G363" s="10"/>
     </row>
-    <row r="364" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G364" s="10"/>
     </row>
-    <row r="365" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G365" s="10"/>
     </row>
-    <row r="366" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G366" s="10"/>
     </row>
-    <row r="367" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G367" s="10"/>
     </row>
-    <row r="368" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G368" s="10"/>
     </row>
-    <row r="369" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G369" s="10"/>
     </row>
-    <row r="370" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G370" s="10"/>
     </row>
-    <row r="371" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G371" s="10"/>
     </row>
-    <row r="372" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G372" s="10"/>
     </row>
-    <row r="373" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G373" s="10"/>
     </row>
-    <row r="374" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G374" s="10"/>
     </row>
-    <row r="375" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G375" s="10"/>
     </row>
-    <row r="376" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G376" s="10"/>
     </row>
-    <row r="377" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G377" s="10"/>
     </row>
-    <row r="378" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G378" s="10"/>
     </row>
-    <row r="379" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G379" s="10"/>
     </row>
-    <row r="380" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G380" s="10"/>
     </row>
-    <row r="381" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G381" s="10"/>
     </row>
-    <row r="382" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G382" s="10"/>
     </row>
-    <row r="383" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G383" s="10"/>
     </row>
-    <row r="384" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G384" s="10"/>
     </row>
-    <row r="385" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G385" s="10"/>
     </row>
-    <row r="386" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G386" s="10"/>
     </row>
-    <row r="387" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G387" s="10"/>
     </row>
-    <row r="388" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G388" s="10"/>
     </row>
-    <row r="389" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G389" s="10"/>
     </row>
-    <row r="390" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G390" s="10"/>
     </row>
-    <row r="391" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G391" s="10"/>
     </row>
-    <row r="392" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G392" s="10"/>
     </row>
-    <row r="393" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G393" s="10"/>
     </row>
-    <row r="394" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G394" s="10"/>
     </row>
-    <row r="395" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G395" s="10"/>
     </row>
-    <row r="396" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G396" s="10"/>
     </row>
-    <row r="397" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G397" s="10"/>
     </row>
-    <row r="398" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G398" s="10"/>
     </row>
-    <row r="399" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G399" s="10"/>
     </row>
-    <row r="400" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G400" s="10"/>
     </row>
-    <row r="401" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G401" s="10"/>
     </row>
-    <row r="402" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G402" s="10"/>
     </row>
-    <row r="403" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G403" s="10"/>
     </row>
-    <row r="404" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G404" s="10"/>
     </row>
-    <row r="405" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G405" s="10"/>
     </row>
-    <row r="406" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G406" s="10"/>
     </row>
-    <row r="407" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G407" s="10"/>
     </row>
-    <row r="408" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G408" s="10"/>
     </row>
-    <row r="409" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G409" s="10"/>
     </row>
-    <row r="410" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G410" s="10"/>
     </row>
-    <row r="411" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G411" s="10"/>
     </row>
-    <row r="412" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G412" s="10"/>
     </row>
-    <row r="413" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G413" s="10"/>
     </row>
-    <row r="414" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G414" s="10"/>
     </row>
-    <row r="415" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G415" s="10"/>
     </row>
-    <row r="416" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G416" s="10"/>
     </row>
-    <row r="417" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G417" s="10"/>
     </row>
-    <row r="418" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G418" s="10"/>
     </row>
-    <row r="419" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G419" s="10"/>
     </row>
-    <row r="420" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G420" s="10"/>
     </row>
-    <row r="421" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G421" s="10"/>
     </row>
-    <row r="422" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G422" s="10"/>
     </row>
-    <row r="423" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G423" s="10"/>
     </row>
-    <row r="424" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G424" s="10"/>
     </row>
-    <row r="425" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G425" s="10"/>
     </row>
-    <row r="426" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G426" s="10"/>
     </row>
-    <row r="427" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G427" s="10"/>
     </row>
-    <row r="428" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G428" s="10"/>
     </row>
-    <row r="429" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G429" s="10"/>
     </row>
-    <row r="430" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G430" s="10"/>
     </row>
-    <row r="431" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G431" s="10"/>
     </row>
-    <row r="432" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G432" s="10"/>
     </row>
-    <row r="433" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G433" s="10"/>
     </row>
-    <row r="434" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G434" s="10"/>
     </row>
-    <row r="435" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G435" s="10"/>
     </row>
-    <row r="436" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G436" s="10"/>
     </row>
-    <row r="437" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G437" s="10"/>
     </row>
-    <row r="438" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G438" s="10"/>
     </row>
-    <row r="439" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G439" s="10"/>
     </row>
-    <row r="440" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G440" s="10"/>
     </row>
-    <row r="441" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G441" s="10"/>
     </row>
-    <row r="442" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G442" s="10"/>
     </row>
-    <row r="443" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G443" s="10"/>
     </row>
-    <row r="444" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G444" s="10"/>
     </row>
-    <row r="445" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G445" s="10"/>
     </row>
-    <row r="446" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G446" s="10"/>
     </row>
-    <row r="447" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G447" s="10"/>
     </row>
-    <row r="448" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G448" s="10"/>
     </row>
-    <row r="449" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G449" s="10"/>
     </row>
-    <row r="450" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G450" s="10"/>
     </row>
-    <row r="451" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G451" s="10"/>
     </row>
-    <row r="452" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G452" s="10"/>
     </row>
-    <row r="453" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G453" s="10"/>
     </row>
-    <row r="454" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G454" s="10"/>
     </row>
-    <row r="455" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G455" s="10"/>
     </row>
-    <row r="456" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G456" s="10"/>
     </row>
-    <row r="457" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G457" s="10"/>
     </row>
-    <row r="458" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G458" s="10"/>
     </row>
-    <row r="459" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G459" s="10"/>
     </row>
-    <row r="460" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G460" s="10"/>
     </row>
-    <row r="461" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G461" s="10"/>
     </row>
-    <row r="462" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G462" s="10"/>
     </row>
-    <row r="463" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G463" s="10"/>
     </row>
-    <row r="464" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G464" s="10"/>
     </row>
-    <row r="465" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G465" s="10"/>
     </row>
-    <row r="466" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G466" s="10"/>
     </row>
-    <row r="467" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G467" s="10"/>
     </row>
-    <row r="468" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G468" s="10"/>
     </row>
-    <row r="469" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G469" s="10"/>
     </row>
-    <row r="470" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G470" s="10"/>
     </row>
-    <row r="471" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G471" s="10"/>
     </row>
-    <row r="472" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G472" s="10"/>
     </row>
-    <row r="473" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G473" s="10"/>
     </row>
-    <row r="474" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G474" s="10"/>
     </row>
-    <row r="475" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G475" s="10"/>
     </row>
-    <row r="476" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G476" s="10"/>
     </row>
-    <row r="477" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G477" s="10"/>
     </row>
-    <row r="478" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G478" s="10"/>
     </row>
-    <row r="479" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G479" s="10"/>
     </row>
-    <row r="480" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G480" s="10"/>
     </row>
-    <row r="481" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G481" s="10"/>
     </row>
-    <row r="482" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G482" s="10"/>
     </row>
-    <row r="483" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G483" s="10"/>
     </row>
-    <row r="484" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G484" s="10"/>
     </row>
-    <row r="485" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G485" s="10"/>
     </row>
-    <row r="486" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G486" s="10"/>
     </row>
-    <row r="487" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G487" s="10"/>
     </row>
-    <row r="488" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G488" s="10"/>
     </row>
-    <row r="489" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G489" s="10"/>
     </row>
-    <row r="490" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G490" s="10"/>
     </row>
-    <row r="491" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G491" s="10"/>
     </row>
-    <row r="492" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G492" s="10"/>
     </row>
-    <row r="493" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G493" s="10"/>
     </row>
-    <row r="494" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G494" s="10"/>
     </row>
-    <row r="495" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G495" s="10"/>
     </row>
-    <row r="496" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G496" s="10"/>
     </row>
-    <row r="497" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G497" s="10"/>
     </row>
-    <row r="498" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G498" s="10"/>
     </row>
-    <row r="499" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G499" s="10"/>
     </row>
-    <row r="500" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G500" s="10"/>
     </row>
-    <row r="501" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G501" s="10"/>
     </row>
-    <row r="502" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G502" s="10"/>
     </row>
-    <row r="503" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G503" s="10"/>
     </row>
-    <row r="504" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G504" s="10"/>
     </row>
-    <row r="505" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G505" s="10"/>
     </row>
-    <row r="506" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G506" s="10"/>
     </row>
-    <row r="507" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G507" s="10"/>
     </row>
-    <row r="508" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G508" s="10"/>
     </row>
-    <row r="509" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G509" s="10"/>
     </row>
-    <row r="510" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G510" s="10"/>
     </row>
-    <row r="511" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G511" s="10"/>
     </row>
-    <row r="512" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G512" s="10"/>
     </row>
-    <row r="513" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G513" s="10"/>
     </row>
-    <row r="514" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G514" s="10"/>
     </row>
-    <row r="515" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G515" s="10"/>
     </row>
-    <row r="516" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G516" s="10"/>
     </row>
-    <row r="517" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G517" s="10"/>
     </row>
-    <row r="518" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G518" s="10"/>
     </row>
-    <row r="519" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G519" s="10"/>
     </row>
-    <row r="520" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G520" s="10"/>
     </row>
-    <row r="521" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G521" s="10"/>
     </row>
-    <row r="522" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G522" s="10"/>
     </row>
-    <row r="523" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G523" s="10"/>
     </row>
-    <row r="524" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G524" s="10"/>
     </row>
-    <row r="525" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G525" s="10"/>
     </row>
-    <row r="526" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G526" s="10"/>
     </row>
-    <row r="527" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G527" s="10"/>
     </row>
-    <row r="528" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G528" s="10"/>
     </row>
-    <row r="529" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G529" s="10"/>
     </row>
-    <row r="530" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G530" s="10"/>
     </row>
-    <row r="531" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G531" s="10"/>
     </row>
-    <row r="532" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G532" s="10"/>
     </row>
-    <row r="533" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G533" s="10"/>
     </row>
-    <row r="534" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G534" s="10"/>
     </row>
-    <row r="535" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G535" s="10"/>
     </row>
-    <row r="536" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G536" s="10"/>
     </row>
-    <row r="537" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G537" s="10"/>
     </row>
-    <row r="538" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G538" s="10"/>
     </row>
-    <row r="539" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G539" s="10"/>
     </row>
-    <row r="540" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G540" s="10"/>
     </row>
-    <row r="541" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G541" s="10"/>
     </row>
-    <row r="542" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G542" s="10"/>
     </row>
-    <row r="543" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G543" s="10"/>
     </row>
-    <row r="544" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G544" s="10"/>
     </row>
-    <row r="545" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G545" s="10"/>
     </row>
-    <row r="546" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G546" s="10"/>
     </row>
-    <row r="547" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G547" s="10"/>
     </row>
-    <row r="548" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G548" s="10"/>
     </row>
-    <row r="549" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G549" s="10"/>
     </row>
-    <row r="550" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G550" s="10"/>
     </row>
-    <row r="551" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G551" s="10"/>
     </row>
-    <row r="552" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G552" s="10"/>
     </row>
-    <row r="553" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G553" s="10"/>
     </row>
-    <row r="554" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G554" s="10"/>
     </row>
-    <row r="555" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G555" s="10"/>
     </row>
-    <row r="556" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G556" s="10"/>
     </row>
-    <row r="557" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G557" s="10"/>
     </row>
-    <row r="558" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G558" s="10"/>
     </row>
-    <row r="559" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G559" s="10"/>
     </row>
-    <row r="560" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G560" s="10"/>
     </row>
-    <row r="561" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G561" s="10"/>
     </row>
-    <row r="562" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G562" s="10"/>
     </row>
-    <row r="563" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G563" s="10"/>
     </row>
-    <row r="564" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G564" s="10"/>
     </row>
-    <row r="565" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G565" s="10"/>
     </row>
-    <row r="566" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G566" s="10"/>
     </row>
-    <row r="567" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G567" s="10"/>
     </row>
-    <row r="568" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G568" s="10"/>
     </row>
-    <row r="569" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G569" s="10"/>
     </row>
-    <row r="570" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G570" s="10"/>
     </row>
-    <row r="571" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G571" s="10"/>
     </row>
-    <row r="572" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G572" s="10"/>
     </row>
-    <row r="573" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G573" s="10"/>
     </row>
-    <row r="574" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G574" s="10"/>
     </row>
-    <row r="575" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G575" s="10"/>
     </row>
-    <row r="576" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G576" s="10"/>
     </row>
-    <row r="577" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G577" s="10"/>
     </row>
-    <row r="578" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G578" s="10"/>
     </row>
-    <row r="579" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G579" s="10"/>
     </row>
-    <row r="580" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G580" s="10"/>
     </row>
-    <row r="581" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G581" s="10"/>
     </row>
-    <row r="582" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G582" s="10"/>
     </row>
-    <row r="583" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G583" s="10"/>
     </row>
-    <row r="584" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G584" s="10"/>
     </row>
-    <row r="585" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G585" s="10"/>
     </row>
-    <row r="586" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G586" s="10"/>
     </row>
-    <row r="587" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G587" s="10"/>
     </row>
-    <row r="588" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G588" s="10"/>
     </row>
-    <row r="589" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G589" s="10"/>
     </row>
-    <row r="590" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G590" s="10"/>
     </row>
-    <row r="591" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G591" s="10"/>
     </row>
-    <row r="592" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G592" s="10"/>
     </row>
-    <row r="593" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G593" s="10"/>
     </row>
-    <row r="594" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G594" s="10"/>
     </row>
-    <row r="595" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G595" s="10"/>
     </row>
-    <row r="596" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G596" s="10"/>
     </row>
-    <row r="597" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G597" s="10"/>
     </row>
-    <row r="598" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G598" s="10"/>
     </row>
-    <row r="599" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G599" s="10"/>
     </row>
-    <row r="600" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G600" s="10"/>
     </row>
-    <row r="601" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G601" s="10"/>
     </row>
-    <row r="602" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G602" s="10"/>
     </row>
-    <row r="603" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G603" s="10"/>
     </row>
-    <row r="604" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G604" s="10"/>
     </row>
-    <row r="605" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G605" s="10"/>
     </row>
-    <row r="606" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G606" s="10"/>
     </row>
-    <row r="607" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G607" s="10"/>
     </row>
-    <row r="608" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G608" s="10"/>
     </row>
-    <row r="609" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G609" s="10"/>
     </row>
-    <row r="610" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G610" s="10"/>
     </row>
-    <row r="611" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G611" s="10"/>
     </row>
-    <row r="612" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G612" s="10"/>
     </row>
-    <row r="613" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G613" s="10"/>
     </row>
-    <row r="614" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G614" s="10"/>
     </row>
-    <row r="615" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G615" s="10"/>
     </row>
-    <row r="616" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G616" s="10"/>
     </row>
-    <row r="617" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G617" s="10"/>
     </row>
-    <row r="618" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G618" s="10"/>
     </row>
-    <row r="619" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G619" s="10"/>
     </row>
-    <row r="620" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G620" s="10"/>
     </row>
-    <row r="621" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G621" s="10"/>
     </row>
-    <row r="622" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G622" s="10"/>
     </row>
-    <row r="623" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G623" s="10"/>
     </row>
-    <row r="624" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G624" s="10"/>
     </row>
-    <row r="625" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G625" s="10"/>
     </row>
-    <row r="626" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G626" s="10"/>
     </row>
-    <row r="627" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G627" s="10"/>
     </row>
-    <row r="628" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G628" s="10"/>
     </row>
-    <row r="629" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G629" s="10"/>
     </row>
-    <row r="630" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G630" s="10"/>
     </row>
-    <row r="631" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G631" s="10"/>
     </row>
-    <row r="632" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G632" s="10"/>
     </row>
-    <row r="633" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G633" s="10"/>
     </row>
-    <row r="634" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G634" s="10"/>
     </row>
-    <row r="635" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G635" s="10"/>
     </row>
-    <row r="636" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G636" s="10"/>
     </row>
-    <row r="637" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G637" s="10"/>
     </row>
-    <row r="638" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G638" s="10"/>
     </row>
-    <row r="639" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G639" s="10"/>
     </row>
-    <row r="640" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G640" s="10"/>
     </row>
-    <row r="641" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G641" s="10"/>
     </row>
-    <row r="642" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G642" s="10"/>
     </row>
-    <row r="643" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G643" s="10"/>
     </row>
-    <row r="644" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G644" s="10"/>
     </row>
-    <row r="645" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G645" s="10"/>
     </row>
-    <row r="646" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G646" s="10"/>
     </row>
-    <row r="647" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G647" s="10"/>
     </row>
-    <row r="648" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G648" s="10"/>
     </row>
-    <row r="649" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G649" s="10"/>
     </row>
-    <row r="650" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G650" s="10"/>
     </row>
-    <row r="651" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G651" s="10"/>
     </row>
-    <row r="652" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G652" s="10"/>
     </row>
-    <row r="653" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G653" s="10"/>
     </row>
-    <row r="654" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G654" s="10"/>
     </row>
-    <row r="655" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G655" s="10"/>
     </row>
-    <row r="656" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G656" s="10"/>
     </row>
-    <row r="657" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G657" s="10"/>
     </row>
-    <row r="658" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G658" s="10"/>
     </row>
-    <row r="659" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G659" s="10"/>
     </row>
-    <row r="660" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G660" s="10"/>
     </row>
-    <row r="661" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G661" s="10"/>
     </row>
-    <row r="662" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G662" s="10"/>
     </row>
-    <row r="663" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G663" s="10"/>
     </row>
-    <row r="664" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G664" s="10"/>
     </row>
-    <row r="665" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G665" s="10"/>
     </row>
-    <row r="666" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G666" s="10"/>
     </row>
-    <row r="667" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G667" s="10"/>
     </row>
-    <row r="668" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G668" s="10"/>
     </row>
-    <row r="669" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G669" s="10"/>
     </row>
-    <row r="670" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G670" s="10"/>
     </row>
-    <row r="671" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G671" s="10"/>
     </row>
-    <row r="672" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G672" s="10"/>
     </row>
-    <row r="673" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G673" s="10"/>
     </row>
-    <row r="674" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G674" s="10"/>
     </row>
-    <row r="675" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G675" s="10"/>
     </row>
-    <row r="676" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G676" s="10"/>
     </row>
-    <row r="677" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G677" s="10"/>
     </row>
-    <row r="678" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G678" s="10"/>
     </row>
-    <row r="679" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G679" s="10"/>
     </row>
-    <row r="680" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G680" s="10"/>
     </row>
-    <row r="681" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G681" s="10"/>
     </row>
-    <row r="682" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G682" s="10"/>
     </row>
-    <row r="683" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G683" s="10"/>
     </row>
-    <row r="684" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G684" s="10"/>
     </row>
-    <row r="685" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G685" s="10"/>
     </row>
-    <row r="686" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G686" s="10"/>
     </row>
-    <row r="687" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G687" s="10"/>
     </row>
-    <row r="688" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G688" s="10"/>
     </row>
-    <row r="689" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G689" s="10"/>
     </row>
-    <row r="690" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G690" s="10"/>
     </row>
-    <row r="691" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G691" s="10"/>
     </row>
-    <row r="692" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G692" s="10"/>
     </row>
-    <row r="693" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G693" s="10"/>
     </row>
-    <row r="694" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G694" s="10"/>
     </row>
-    <row r="695" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G695" s="10"/>
     </row>
-    <row r="696" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G696" s="10"/>
     </row>
-    <row r="697" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G697" s="10"/>
     </row>
-    <row r="698" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G698" s="10"/>
     </row>
-    <row r="699" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G699" s="10"/>
     </row>
-    <row r="700" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G700" s="10"/>
     </row>
-    <row r="701" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G701" s="10"/>
     </row>
-    <row r="702" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G702" s="10"/>
     </row>
-    <row r="703" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G703" s="10"/>
     </row>
-    <row r="704" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G704" s="10"/>
     </row>
-    <row r="705" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G705" s="10"/>
     </row>
-    <row r="706" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G706" s="10"/>
     </row>
-    <row r="707" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G707" s="10"/>
     </row>
-    <row r="708" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G708" s="10"/>
     </row>
-    <row r="709" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G709" s="10"/>
     </row>
-    <row r="710" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G710" s="10"/>
     </row>
-    <row r="711" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G711" s="10"/>
     </row>
-    <row r="712" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G712" s="10"/>
     </row>
-    <row r="713" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G713" s="10"/>
     </row>
-    <row r="714" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G714" s="10"/>
     </row>
-    <row r="715" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G715" s="10"/>
     </row>
-    <row r="716" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G716" s="10"/>
     </row>
-    <row r="717" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G717" s="10"/>
     </row>
-    <row r="718" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G718" s="10"/>
     </row>
-    <row r="719" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G719" s="10"/>
     </row>
-    <row r="720" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G720" s="10"/>
     </row>
-    <row r="721" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G721" s="10"/>
     </row>
-    <row r="722" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G722" s="10"/>
     </row>
-    <row r="723" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G723" s="10"/>
     </row>
-    <row r="724" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G724" s="10"/>
     </row>
-    <row r="725" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G725" s="10"/>
     </row>
-    <row r="726" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G726" s="10"/>
     </row>
-    <row r="727" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G727" s="10"/>
     </row>
-    <row r="728" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G728" s="10"/>
     </row>
-    <row r="729" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G729" s="10"/>
     </row>
-    <row r="730" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G730" s="10"/>
     </row>
-    <row r="731" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G731" s="10"/>
     </row>
-    <row r="732" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G732" s="10"/>
     </row>
-    <row r="733" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G733" s="10"/>
     </row>
-    <row r="734" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G734" s="10"/>
     </row>
-    <row r="735" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G735" s="10"/>
     </row>
-    <row r="736" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G736" s="10"/>
     </row>
-    <row r="737" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G737" s="10"/>
     </row>
-    <row r="738" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G738" s="10"/>
     </row>
-    <row r="739" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G739" s="10"/>
     </row>
-    <row r="740" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G740" s="10"/>
     </row>
-    <row r="741" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G741" s="10"/>
     </row>
-    <row r="742" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G742" s="10"/>
     </row>
-    <row r="743" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G743" s="10"/>
     </row>
-    <row r="744" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G744" s="10"/>
     </row>
-    <row r="745" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G745" s="10"/>
     </row>
-    <row r="746" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G746" s="10"/>
     </row>
-    <row r="747" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G747" s="10"/>
     </row>
-    <row r="748" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G748" s="10"/>
     </row>
-    <row r="749" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G749" s="10"/>
     </row>
-    <row r="750" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G750" s="10"/>
     </row>
-    <row r="751" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G751" s="10"/>
     </row>
-    <row r="752" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G752" s="10"/>
     </row>
-    <row r="753" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G753" s="10"/>
     </row>
-    <row r="754" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G754" s="10"/>
     </row>
-    <row r="755" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G755" s="10"/>
     </row>
-    <row r="756" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G756" s="10"/>
     </row>
-    <row r="757" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G757" s="10"/>
     </row>
-    <row r="758" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G758" s="10"/>
     </row>
-    <row r="759" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G759" s="10"/>
     </row>
-    <row r="760" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G760" s="10"/>
     </row>
-    <row r="761" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G761" s="10"/>
     </row>
-    <row r="762" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G762" s="10"/>
     </row>
-    <row r="763" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G763" s="10"/>
     </row>
-    <row r="764" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G764" s="10"/>
     </row>
-    <row r="765" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G765" s="10"/>
     </row>
-    <row r="766" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G766" s="10"/>
     </row>
-    <row r="767" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G767" s="10"/>
     </row>
-    <row r="768" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G768" s="10"/>
     </row>
-    <row r="769" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G769" s="10"/>
     </row>
-    <row r="770" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G770" s="10"/>
     </row>
-    <row r="771" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G771" s="10"/>
     </row>
-    <row r="772" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G772" s="10"/>
     </row>
-    <row r="773" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G773" s="10"/>
     </row>
-    <row r="774" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G774" s="10"/>
     </row>
-    <row r="775" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G775" s="10"/>
     </row>
-    <row r="776" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G776" s="10"/>
     </row>
-    <row r="777" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G777" s="10"/>
     </row>
-    <row r="778" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G778" s="10"/>
     </row>
-    <row r="779" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G779" s="10"/>
     </row>
-    <row r="780" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G780" s="10"/>
     </row>
-    <row r="781" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G781" s="10"/>
     </row>
-    <row r="782" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G782" s="10"/>
     </row>
-    <row r="783" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G783" s="10"/>
     </row>
-    <row r="784" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G784" s="10"/>
     </row>
-    <row r="785" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G785" s="10"/>
     </row>
-    <row r="786" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G786" s="10"/>
     </row>
-    <row r="787" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G787" s="10"/>
     </row>
-    <row r="788" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G788" s="10"/>
     </row>
-    <row r="789" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G789" s="10"/>
     </row>
-    <row r="790" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G790" s="10"/>
     </row>
-    <row r="791" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G791" s="10"/>
     </row>
-    <row r="792" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G792" s="10"/>
     </row>
-    <row r="793" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G793" s="10"/>
     </row>
-    <row r="794" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G794" s="10"/>
     </row>
-    <row r="795" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G795" s="10"/>
     </row>
-    <row r="796" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G796" s="10"/>
     </row>
-    <row r="797" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G797" s="10"/>
     </row>
-    <row r="798" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G798" s="10"/>
     </row>
-    <row r="799" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G799" s="10"/>
     </row>
-    <row r="800" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G800" s="10"/>
     </row>
-    <row r="801" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G801" s="10"/>
     </row>
-    <row r="802" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G802" s="10"/>
     </row>
-    <row r="803" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G803" s="10"/>
     </row>
-    <row r="804" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G804" s="10"/>
     </row>
-    <row r="805" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G805" s="10"/>
     </row>
-    <row r="806" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G806" s="10"/>
     </row>
-    <row r="807" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G807" s="10"/>
     </row>
-    <row r="808" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G808" s="10"/>
     </row>
-    <row r="809" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G809" s="10"/>
     </row>
-    <row r="810" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G810" s="10"/>
     </row>
-    <row r="811" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G811" s="10"/>
     </row>
-    <row r="812" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G812" s="10"/>
     </row>
-    <row r="813" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G813" s="10"/>
     </row>
-    <row r="814" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G814" s="10"/>
     </row>
-    <row r="815" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G815" s="10"/>
     </row>
-    <row r="816" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G816" s="10"/>
     </row>
-    <row r="817" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G817" s="10"/>
     </row>
-    <row r="818" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G818" s="10"/>
     </row>
-    <row r="819" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G819" s="10"/>
     </row>
-    <row r="820" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G820" s="10"/>
     </row>
-    <row r="821" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G821" s="10"/>
     </row>
-    <row r="822" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G822" s="10"/>
     </row>
-    <row r="823" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G823" s="10"/>
     </row>
-    <row r="824" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G824" s="10"/>
     </row>
-    <row r="825" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G825" s="10"/>
     </row>
-    <row r="826" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G826" s="10"/>
     </row>
-    <row r="827" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G827" s="10"/>
     </row>
-    <row r="828" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G828" s="10"/>
     </row>
-    <row r="829" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G829" s="10"/>
     </row>
-    <row r="830" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G830" s="10"/>
     </row>
-    <row r="831" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G831" s="10"/>
     </row>
-    <row r="832" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G832" s="10"/>
     </row>
-    <row r="833" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G833" s="10"/>
     </row>
-    <row r="834" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G834" s="10"/>
     </row>
-    <row r="835" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G835" s="10"/>
     </row>
-    <row r="836" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G836" s="10"/>
     </row>
-    <row r="837" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G837" s="10"/>
     </row>
-    <row r="838" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G838" s="10"/>
     </row>
-    <row r="839" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G839" s="10"/>
     </row>
-    <row r="840" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G840" s="10"/>
     </row>
-    <row r="841" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G841" s="10"/>
     </row>
-    <row r="842" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G842" s="10"/>
     </row>
-    <row r="843" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G843" s="10"/>
     </row>
-    <row r="844" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G844" s="10"/>
     </row>
-    <row r="845" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G845" s="10"/>
     </row>
-    <row r="846" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G846" s="10"/>
     </row>
-    <row r="847" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G847" s="10"/>
     </row>
-    <row r="848" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G848" s="10"/>
     </row>
-    <row r="849" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G849" s="10"/>
     </row>
-    <row r="850" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G850" s="10"/>
     </row>
-    <row r="851" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G851" s="10"/>
     </row>
-    <row r="852" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G852" s="10"/>
     </row>
-    <row r="853" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G853" s="10"/>
     </row>
-    <row r="854" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G854" s="10"/>
     </row>
-    <row r="855" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G855" s="10"/>
     </row>
-    <row r="856" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G856" s="10"/>
     </row>
-    <row r="857" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G857" s="10"/>
     </row>
-    <row r="858" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G858" s="10"/>
     </row>
-    <row r="859" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G859" s="10"/>
     </row>
-    <row r="860" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G860" s="10"/>
     </row>
-    <row r="861" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G861" s="10"/>
     </row>
-    <row r="862" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G862" s="10"/>
     </row>
-    <row r="863" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G863" s="10"/>
     </row>
-    <row r="864" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G864" s="10"/>
     </row>
-    <row r="865" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G865" s="10"/>
     </row>
-    <row r="866" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G866" s="10"/>
     </row>
-    <row r="867" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G867" s="10"/>
     </row>
-    <row r="868" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G868" s="10"/>
     </row>
-    <row r="869" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G869" s="10"/>
     </row>
-    <row r="870" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G870" s="10"/>
     </row>
-    <row r="871" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G871" s="10"/>
     </row>
-    <row r="872" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G872" s="10"/>
     </row>
-    <row r="873" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G873" s="10"/>
     </row>
-    <row r="874" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G874" s="10"/>
     </row>
-    <row r="875" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G875" s="10"/>
     </row>
-    <row r="876" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G876" s="10"/>
     </row>
-    <row r="877" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G877" s="10"/>
     </row>
-    <row r="878" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G878" s="10"/>
     </row>
-    <row r="879" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G879" s="10"/>
     </row>
-    <row r="880" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G880" s="10"/>
     </row>
-    <row r="881" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G881" s="10"/>
     </row>
-    <row r="882" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G882" s="10"/>
     </row>
-    <row r="883" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G883" s="10"/>
     </row>
-    <row r="884" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G884" s="10"/>
     </row>
-    <row r="885" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G885" s="10"/>
     </row>
-    <row r="886" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G886" s="10"/>
     </row>
-    <row r="887" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G887" s="10"/>
     </row>
-    <row r="888" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G888" s="10"/>
     </row>
-    <row r="889" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G889" s="10"/>
     </row>
-    <row r="890" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G890" s="10"/>
     </row>
-    <row r="891" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G891" s="10"/>
     </row>
-    <row r="892" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G892" s="10"/>
     </row>
-    <row r="893" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G893" s="10"/>
     </row>
-    <row r="894" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G894" s="10"/>
     </row>
-    <row r="895" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G895" s="10"/>
     </row>
-    <row r="896" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G896" s="10"/>
     </row>
-    <row r="897" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G897" s="10"/>
     </row>
-    <row r="898" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G898" s="10"/>
     </row>
-    <row r="899" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G899" s="10"/>
     </row>
-    <row r="900" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G900" s="10"/>
     </row>
-    <row r="901" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G901" s="10"/>
     </row>
-    <row r="902" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G902" s="10"/>
     </row>
-    <row r="903" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G903" s="10"/>
     </row>
-    <row r="904" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G904" s="10"/>
     </row>
-    <row r="905" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G905" s="10"/>
     </row>
-    <row r="906" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G906" s="10"/>
     </row>
-    <row r="907" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G907" s="10"/>
     </row>
-    <row r="908" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G908" s="10"/>
     </row>
-    <row r="909" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G909" s="10"/>
     </row>
-    <row r="910" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G910" s="10"/>
     </row>
-    <row r="911" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G911" s="10"/>
     </row>
-    <row r="912" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G912" s="10"/>
     </row>
-    <row r="913" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G913" s="10"/>
     </row>
-    <row r="914" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G914" s="10"/>
     </row>
-    <row r="915" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G915" s="10"/>
     </row>
-    <row r="916" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G916" s="10"/>
     </row>
-    <row r="917" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G917" s="10"/>
     </row>
-    <row r="918" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G918" s="10"/>
     </row>
-    <row r="919" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G919" s="10"/>
     </row>
-    <row r="920" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G920" s="10"/>
     </row>
-    <row r="921" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G921" s="10"/>
     </row>
-    <row r="922" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G922" s="10"/>
     </row>
-    <row r="923" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G923" s="10"/>
     </row>
-    <row r="924" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G924" s="10"/>
     </row>
-    <row r="925" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G925" s="10"/>
     </row>
-    <row r="926" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G926" s="10"/>
     </row>
-    <row r="927" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G927" s="10"/>
     </row>
-    <row r="928" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G928" s="10"/>
     </row>
-    <row r="929" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G929" s="10"/>
     </row>
-    <row r="930" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G930" s="10"/>
     </row>
-    <row r="931" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G931" s="10"/>
     </row>
-    <row r="932" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G932" s="10"/>
     </row>
-    <row r="933" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G933" s="10"/>
     </row>
-    <row r="934" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G934" s="10"/>
     </row>
-    <row r="935" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G935" s="10"/>
     </row>
-    <row r="936" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G936" s="10"/>
     </row>
-    <row r="937" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G937" s="10"/>
     </row>
-    <row r="938" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G938" s="10"/>
     </row>
-    <row r="939" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G939" s="10"/>
     </row>
-    <row r="940" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G940" s="10"/>
     </row>
-    <row r="941" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G941" s="10"/>
     </row>
-    <row r="942" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G942" s="10"/>
     </row>
-    <row r="943" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G943" s="10"/>
     </row>
-    <row r="944" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G944" s="10"/>
     </row>
-    <row r="945" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G945" s="10"/>
     </row>
-    <row r="946" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G946" s="10"/>
     </row>
-    <row r="947" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G947" s="10"/>
     </row>
-    <row r="948" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G948" s="10"/>
     </row>
-    <row r="949" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G949" s="10"/>
     </row>
-    <row r="950" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G950" s="10"/>
     </row>
-    <row r="951" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G951" s="10"/>
     </row>
-    <row r="952" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G952" s="10"/>
     </row>
-    <row r="953" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G953" s="10"/>
     </row>
-    <row r="954" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G954" s="10"/>
     </row>
-    <row r="955" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G955" s="10"/>
     </row>
-    <row r="956" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G956" s="10"/>
     </row>
-    <row r="957" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G957" s="10"/>
     </row>
-    <row r="958" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G958" s="10"/>
     </row>
-    <row r="959" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G959" s="10"/>
     </row>
-    <row r="960" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G960" s="10"/>
     </row>
-    <row r="961" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G961" s="10"/>
     </row>
-    <row r="962" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G962" s="10"/>
     </row>
-    <row r="963" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G963" s="10"/>
     </row>
-    <row r="964" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G964" s="10"/>
     </row>
-    <row r="965" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G965" s="10"/>
     </row>
-    <row r="966" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G966" s="10"/>
     </row>
-    <row r="967" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G967" s="10"/>
     </row>
-    <row r="968" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G968" s="10"/>
     </row>
-    <row r="969" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G969" s="10"/>
     </row>
-    <row r="970" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G970" s="10"/>
     </row>
-    <row r="971" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G971" s="10"/>
     </row>
-    <row r="972" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G972" s="10"/>
     </row>
-    <row r="973" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G973" s="10"/>
     </row>
-    <row r="974" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G974" s="10"/>
     </row>
-    <row r="975" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G975" s="10"/>
     </row>
-    <row r="976" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G976" s="10"/>
     </row>
-    <row r="977" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G977" s="10"/>
     </row>
-    <row r="978" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G978" s="10"/>
     </row>
-    <row r="979" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G979" s="10"/>
     </row>
-    <row r="980" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G980" s="10"/>
     </row>
-    <row r="981" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G981" s="10"/>
     </row>
-    <row r="982" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G982" s="10"/>
     </row>
-    <row r="983" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G983" s="10"/>
     </row>
-    <row r="984" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G984" s="10"/>
     </row>
-    <row r="985" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G985" s="10"/>
     </row>
-    <row r="986" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G986" s="10"/>
     </row>
-    <row r="987" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G987" s="10"/>
     </row>
-    <row r="988" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G988" s="10"/>
     </row>
-    <row r="989" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G989" s="10"/>
     </row>
-    <row r="990" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G990" s="10"/>
     </row>
-    <row r="991" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G991" s="10"/>
     </row>
-    <row r="992" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G992" s="10"/>
     </row>
-    <row r="993" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G993" s="10"/>
     </row>
-    <row r="994" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G994" s="10"/>
     </row>
-    <row r="995" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G995" s="10"/>
     </row>
-    <row r="996" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G996" s="10"/>
     </row>
-    <row r="997" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G997" s="10"/>
     </row>
-    <row r="998" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G998" s="10"/>
     </row>
-    <row r="999" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G999" s="10"/>
     </row>
-    <row r="1000" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G1000" s="10"/>
     </row>
-    <row r="1001" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G1001" s="10"/>
     </row>
-    <row r="1002" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1002" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G1002" s="10"/>
     </row>
-    <row r="1003" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1003" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G1003" s="10"/>
     </row>
-    <row r="1004" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1004" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G1004" s="10"/>
     </row>
   </sheetData>
@@ -5137,30 +5519,902 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AA24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.44140625" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="32.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+    </row>
+    <row r="3" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J24" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5208,411 +6462,83 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-    </row>
-    <row r="3" spans="1:26" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" ht="153" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="F2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="G2" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="153" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="153" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" ht="153" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Z100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="5"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="5"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:26" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="12" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="5"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -5624,7 +6550,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -5636,7 +6562,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -5648,7 +6574,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -5660,7 +6586,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -5672,7 +6598,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -5684,7 +6610,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -5696,7 +6622,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -5708,7 +6634,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -5720,7 +6646,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -5732,7 +6658,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -5744,7 +6670,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -5756,7 +6682,7 @@
       <c r="I16" s="18"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -5768,7 +6694,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -5780,7 +6706,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -5792,7 +6718,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -5804,7 +6730,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -5816,7 +6742,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -5828,7 +6754,7 @@
       <c r="I22" s="18"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -5840,7 +6766,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -5852,7 +6778,7 @@
       <c r="I24" s="18"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -5864,7 +6790,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -5876,7 +6802,7 @@
       <c r="I26" s="18"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -5888,7 +6814,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -5900,7 +6826,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -5912,7 +6838,7 @@
       <c r="I29" s="18"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -5924,7 +6850,7 @@
       <c r="I30" s="18"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -5936,7 +6862,7 @@
       <c r="I31" s="18"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -5948,7 +6874,7 @@
       <c r="I32" s="18"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -5960,7 +6886,7 @@
       <c r="I33" s="18"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -5971,7 +6897,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -5982,7 +6908,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -5993,7 +6919,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -6004,7 +6930,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -6015,7 +6941,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -6026,7 +6952,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -6037,7 +6963,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -6048,7 +6974,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -6059,7 +6985,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -6070,7 +6996,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -6081,7 +7007,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -6092,7 +7018,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -6103,7 +7029,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -6114,7 +7040,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -6125,7 +7051,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -6136,7 +7062,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -6147,7 +7073,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -6158,7 +7084,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -6169,7 +7095,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -6180,7 +7106,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -6191,7 +7117,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -6202,7 +7128,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -6213,7 +7139,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -6224,7 +7150,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -6235,7 +7161,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -6246,7 +7172,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -6257,7 +7183,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -6268,7 +7194,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -6279,7 +7205,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -6290,7 +7216,7 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -6301,7 +7227,7 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -6312,7 +7238,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -6323,7 +7249,7 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -6334,7 +7260,7 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -6345,7 +7271,7 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -6356,7 +7282,7 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -6367,7 +7293,7 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -6378,7 +7304,7 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -6389,7 +7315,7 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -6400,7 +7326,7 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -6411,7 +7337,7 @@
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -6422,7 +7348,7 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -6433,7 +7359,7 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -6444,7 +7370,7 @@
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -6455,7 +7381,7 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -6466,7 +7392,7 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -6477,7 +7403,7 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -6488,7 +7414,7 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -6499,7 +7425,7 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -6510,7 +7436,7 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -6521,7 +7447,7 @@
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -6532,7 +7458,7 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -6543,7 +7469,7 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -6554,7 +7480,7 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -6565,7 +7491,7 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -6576,7 +7502,7 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -6587,7 +7513,7 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -6598,7 +7524,7 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -6609,7 +7535,7 @@
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -6620,7 +7546,7 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -6631,7 +7557,7 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -6642,7 +7568,7 @@
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -6653,7 +7579,7 @@
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -6664,7 +7590,7 @@
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -6675,7 +7601,7 @@
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -6686,7 +7612,7 @@
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -6717,21 +7643,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6779,103 +7705,103 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="5"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="12" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="5"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="5"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="5"/>
@@ -6902,22 +7828,22 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="12.7109375" style="20"/>
+    <col min="1" max="1" width="21.5546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="38.109375" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="12.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6965,191 +7891,191 @@
       <c r="Y1" s="19"/>
       <c r="Z1" s="19"/>
     </row>
-    <row r="2" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="26"/>
-    </row>
-    <row r="6" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
@@ -7161,7 +8087,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
@@ -7173,7 +8099,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
@@ -7185,7 +8111,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="22"/>
@@ -7197,7 +8123,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -7209,7 +8135,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -7221,7 +8147,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -7233,7 +8159,7 @@
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
@@ -7245,7 +8171,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
@@ -7257,7 +8183,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -7269,7 +8195,7 @@
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -7281,7 +8207,7 @@
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -7309,20 +8235,20 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -7370,281 +8296,281 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D2" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="C3" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>153</v>
-      </c>
       <c r="C4" s="34" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D4" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="34"/>
-    </row>
-    <row r="5" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>153</v>
-      </c>
       <c r="C5" s="34" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D5" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>153</v>
-      </c>
       <c r="C6" s="34" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D6" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>153</v>
-      </c>
       <c r="C7" s="34" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
     </row>
-    <row r="8" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>171</v>
-      </c>
       <c r="F8" s="36" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
     </row>
-    <row r="9" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>171</v>
-      </c>
       <c r="F9" s="36" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
     </row>
-    <row r="10" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
     </row>
-    <row r="11" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="34"/>

--- a/Testing/Reports/Car Booking TCs.xlsx
+++ b/Testing/Reports/Car Booking TCs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Car-Bookings\Testing\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basma\Desktop\Car-Bookings\Testing\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2337,10 +2337,10 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2520,7 +2520,7 @@
       <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="13" t="s">
         <v>25</v>
       </c>
     </row>
